--- a/data/trans_orig/P6512-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6512-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{819C198C-789D-4BB7-B780-7D7731C5592B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E44F1BD-D7EB-4C33-84B5-47E161CFCAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1367ABC1-C618-45EC-8A57-E816EB4CA865}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1CA6F962-C471-4E5D-8980-A845242B870F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,10 +74,10 @@
     <t>71,49%</t>
   </si>
   <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
   </si>
   <si>
     <t>74,79%</t>
@@ -86,16 +86,16 @@
     <t>55,73%</t>
   </si>
   <si>
-    <t>88,88%</t>
+    <t>88,95%</t>
   </si>
   <si>
     <t>72,48%</t>
   </si>
   <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,10 +104,10 @@
     <t>20,73%</t>
   </si>
   <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
   </si>
   <si>
     <t>7,23%</t>
@@ -116,16 +116,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>22,16%</t>
+    <t>22,49%</t>
   </si>
   <si>
     <t>16,67%</t>
   </si>
   <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>5,79%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
   </si>
   <si>
     <t>11,03%</t>
   </si>
   <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
   </si>
   <si>
     <t>7,37%</t>
   </si>
   <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,22 +164,22 @@
     <t>1,99%</t>
   </si>
   <si>
-    <t>11,32%</t>
+    <t>9,96%</t>
   </si>
   <si>
     <t>6,95%</t>
   </si>
   <si>
-    <t>24,51%</t>
+    <t>21,3%</t>
   </si>
   <si>
     <t>3,48%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
   </si>
   <si>
     <t>100%</t>
@@ -191,529 +191,529 @@
     <t>67,82%</t>
   </si>
   <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
   </si>
   <si>
     <t>56,31%</t>
   </si>
   <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
   </si>
   <si>
     <t>64,51%</t>
   </si>
   <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
   </si>
   <si>
     <t>15,26%</t>
   </si>
   <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
   </si>
   <si>
     <t>18,55%</t>
   </si>
   <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
   </si>
   <si>
     <t>16,2%</t>
   </si>
   <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
   </si>
   <si>
     <t>11,24%</t>
   </si>
   <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
   </si>
   <si>
     <t>18,62%</t>
   </si>
   <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
     <t>12,27%</t>
   </si>
   <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
     <t>14,95%</t>
   </si>
   <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
     <t>17,1%</t>
   </si>
   <si>
-    <t>18,83%</t>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
   </si>
   <si>
     <t>22,27%</t>
   </si>
   <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
   </si>
   <si>
     <t>18,91%</t>
   </si>
   <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1128,7 +1128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D13530-0446-482F-A7C1-930849BA10C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3C743D-F6A3-48F5-87FB-681AF6BF910D}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1850,10 +1850,10 @@
         <v>102</v>
       </c>
       <c r="P15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1868,13 +1868,13 @@
         <v>62737</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>37</v>
@@ -1883,13 +1883,13 @@
         <v>39258</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>95</v>
@@ -1898,13 +1898,13 @@
         <v>101995</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1919,13 +1919,13 @@
         <v>92662</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -1934,13 +1934,13 @@
         <v>52500</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>128</v>
@@ -1949,13 +1949,13 @@
         <v>145162</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2011,7 +2011,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2023,13 +2023,13 @@
         <v>213824</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>92</v>
@@ -2038,13 +2038,13 @@
         <v>94723</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>293</v>
@@ -2053,13 +2053,13 @@
         <v>308548</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2074,13 +2074,13 @@
         <v>65629</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
@@ -2089,13 +2089,13 @@
         <v>35201</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>95</v>
@@ -2104,13 +2104,13 @@
         <v>100830</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2125,13 +2125,13 @@
         <v>63389</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>31</v>
@@ -2140,13 +2140,13 @@
         <v>30500</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>90</v>
@@ -2155,13 +2155,13 @@
         <v>93889</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2176,13 +2176,13 @@
         <v>64577</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>55</v>
@@ -2191,13 +2191,13 @@
         <v>52522</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>111</v>
@@ -2206,13 +2206,13 @@
         <v>117100</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2268,7 +2268,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2280,13 +2280,13 @@
         <v>264977</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>153</v>
@@ -2295,13 +2295,13 @@
         <v>166982</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>429</v>
@@ -2310,13 +2310,13 @@
         <v>431960</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2331,13 +2331,13 @@
         <v>68672</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>47</v>
@@ -2346,13 +2346,13 @@
         <v>49175</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>72</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M25" s="7">
         <v>118</v>
@@ -2361,13 +2361,13 @@
         <v>117846</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,13 +2382,13 @@
         <v>73493</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H26" s="7">
         <v>57</v>
@@ -2397,13 +2397,13 @@
         <v>59661</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M26" s="7">
         <v>131</v>
@@ -2412,13 +2412,13 @@
         <v>133154</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,13 +2433,13 @@
         <v>148731</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H27" s="7">
         <v>110</v>
@@ -2448,13 +2448,13 @@
         <v>113242</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>119</v>
+        <v>188</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M27" s="7">
         <v>264</v>
@@ -2463,13 +2463,13 @@
         <v>261972</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2537,13 +2537,13 @@
         <v>1081280</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>454</v>
@@ -2552,13 +2552,13 @@
         <v>481298</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>1490</v>
@@ -2567,13 +2567,13 @@
         <v>1562579</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2588,13 +2588,13 @@
         <v>257670</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>152</v>
@@ -2603,13 +2603,13 @@
         <v>159662</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>207</v>
+        <v>102</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M30" s="7">
         <v>401</v>
@@ -2618,13 +2618,13 @@
         <v>417332</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2639,13 +2639,13 @@
         <v>239683</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H31" s="7">
         <v>152</v>
@@ -2654,13 +2654,13 @@
         <v>156701</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M31" s="7">
         <v>382</v>
@@ -2669,13 +2669,13 @@
         <v>396384</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,10 +2690,10 @@
         <v>325725</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>219</v>

--- a/data/trans_orig/P6512-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6512-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E44F1BD-D7EB-4C33-84B5-47E161CFCAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42822593-819E-4B80-91E7-79F85000CC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1CA6F962-C471-4E5D-8980-A845242B870F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8A86DD54-0D57-4EB3-A008-70D12CC9CCCF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="225">
   <si>
     <t>Población según el uso de ordenadores durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,1%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -74,28 +74,28 @@
     <t>71,49%</t>
   </si>
   <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
   </si>
   <si>
     <t>74,79%</t>
   </si>
   <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
   </si>
   <si>
     <t>72,48%</t>
   </si>
   <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,10 +104,10 @@
     <t>20,73%</t>
   </si>
   <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
   </si>
   <si>
     <t>7,23%</t>
@@ -116,16 +116,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>22,49%</t>
+    <t>22,1%</t>
   </si>
   <si>
     <t>16,67%</t>
   </si>
   <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>5,79%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
   </si>
   <si>
     <t>11,03%</t>
   </si>
   <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
   </si>
   <si>
     <t>7,37%</t>
   </si>
   <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,556 +164,550 @@
     <t>1,99%</t>
   </si>
   <si>
-    <t>9,96%</t>
+    <t>9,83%</t>
   </si>
   <si>
     <t>6,95%</t>
   </si>
   <si>
-    <t>21,3%</t>
+    <t>21,71%</t>
   </si>
   <si>
     <t>3,48%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>67,82%</t>
   </si>
   <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
   </si>
   <si>
     <t>56,31%</t>
   </si>
   <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
   </si>
   <si>
     <t>64,51%</t>
   </si>
   <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
   </si>
   <si>
     <t>15,26%</t>
   </si>
   <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
   </si>
   <si>
     <t>18,55%</t>
   </si>
   <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
   </si>
   <si>
     <t>16,2%</t>
   </si>
   <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
   </si>
   <si>
     <t>11,24%</t>
   </si>
   <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
   </si>
   <si>
     <t>18,62%</t>
   </si>
   <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
     <t>12,64%</t>
   </si>
   <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
   </si>
   <si>
     <t>11,99%</t>
   </si>
   <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
   </si>
   <si>
     <t>14,24%</t>
   </si>
   <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
   </si>
   <si>
     <t>12,59%</t>
   </si>
   <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
   </si>
   <si>
     <t>15,27%</t>
   </si>
   <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
   </si>
   <si>
     <t>17,1%</t>
   </si>
   <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
   </si>
   <si>
     <t>22,27%</t>
   </si>
   <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
   </si>
   <si>
     <t>18,91%</t>
   </si>
   <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1128,7 +1122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3C743D-F6A3-48F5-87FB-681AF6BF910D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A9275C-B076-4BF2-B1B0-50C4B6260642}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1889,7 +1883,7 @@
         <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="M16" s="7">
         <v>95</v>
@@ -1898,13 +1892,13 @@
         <v>101995</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1919,7 +1913,7 @@
         <v>92662</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>113</v>
@@ -2077,10 +2071,10 @@
         <v>131</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
@@ -2089,13 +2083,13 @@
         <v>35201</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>95</v>
@@ -2104,13 +2098,13 @@
         <v>100830</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2125,13 +2119,13 @@
         <v>63389</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="H21" s="7">
         <v>31</v>
@@ -2346,13 +2340,13 @@
         <v>49175</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>72</v>
+        <v>170</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="M25" s="7">
         <v>118</v>
@@ -2418,7 +2412,7 @@
         <v>182</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,13 +2427,13 @@
         <v>148731</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H27" s="7">
         <v>110</v>
@@ -2448,13 +2442,13 @@
         <v>113242</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M27" s="7">
         <v>264</v>
@@ -2463,13 +2457,13 @@
         <v>261972</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2537,13 +2531,13 @@
         <v>1081280</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H29" s="7">
         <v>454</v>
@@ -2552,13 +2546,13 @@
         <v>481298</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M29" s="7">
         <v>1490</v>
@@ -2567,13 +2561,13 @@
         <v>1562579</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2588,13 +2582,13 @@
         <v>257670</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H30" s="7">
         <v>152</v>
@@ -2603,13 +2597,13 @@
         <v>159662</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>102</v>
+        <v>202</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M30" s="7">
         <v>401</v>
@@ -2618,13 +2612,13 @@
         <v>417332</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2639,13 +2633,13 @@
         <v>239683</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H31" s="7">
         <v>152</v>
@@ -2654,13 +2648,13 @@
         <v>156701</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M31" s="7">
         <v>382</v>
@@ -2669,13 +2663,13 @@
         <v>396384</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,13 +2684,13 @@
         <v>325725</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H32" s="7">
         <v>224</v>
@@ -2705,13 +2699,13 @@
         <v>228576</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M32" s="7">
         <v>533</v>
@@ -2720,13 +2714,13 @@
         <v>554301</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,7 +2732,7 @@
         <v>1824</v>
       </c>
       <c r="D33" s="7">
-        <v>1904358</v>
+        <v>1904359</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>48</v>
@@ -2782,7 +2776,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6512-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6512-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42822593-819E-4B80-91E7-79F85000CC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94C23607-007A-4B64-9E63-E5BA8F520E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8A86DD54-0D57-4EB3-A008-70D12CC9CCCF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{148417A6-DA45-405A-912D-988565D7B498}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="227">
   <si>
     <t>Población según el uso de ordenadores durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,1%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>71,49%</t>
   </si>
   <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
   </si>
   <si>
     <t>74,79%</t>
   </si>
   <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
   </si>
   <si>
     <t>72,48%</t>
   </si>
   <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,10 +104,10 @@
     <t>20,73%</t>
   </si>
   <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
   </si>
   <si>
     <t>7,23%</t>
@@ -116,16 +116,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>22,1%</t>
+    <t>22,16%</t>
   </si>
   <si>
     <t>16,67%</t>
   </si>
   <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>5,79%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
   </si>
   <si>
     <t>11,03%</t>
   </si>
   <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
   </si>
   <si>
     <t>7,37%</t>
   </si>
   <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,22 +164,22 @@
     <t>1,99%</t>
   </si>
   <si>
-    <t>9,83%</t>
+    <t>11,32%</t>
   </si>
   <si>
     <t>6,95%</t>
   </si>
   <si>
-    <t>21,71%</t>
+    <t>24,51%</t>
   </si>
   <si>
     <t>3,48%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
   </si>
   <si>
     <t>100%</t>
@@ -191,109 +191,109 @@
     <t>67,82%</t>
   </si>
   <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
   </si>
   <si>
     <t>56,31%</t>
   </si>
   <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
   </si>
   <si>
     <t>64,51%</t>
   </si>
   <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
   </si>
   <si>
     <t>15,26%</t>
   </si>
   <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
   </si>
   <si>
     <t>18,55%</t>
   </si>
   <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
   </si>
   <si>
     <t>16,2%</t>
   </si>
   <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
   </si>
   <si>
     <t>11,24%</t>
   </si>
   <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
   </si>
   <si>
     <t>18,62%</t>
   </si>
   <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
   </si>
   <si>
     <t>13,36%</t>
   </si>
   <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
   </si>
   <si>
     <t>5,69%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
   </si>
   <si>
     <t>6,52%</t>
   </si>
   <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
   </si>
   <si>
     <t>5,93%</t>
   </si>
   <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -302,412 +302,418 @@
     <t>61,03%</t>
   </si>
   <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
   </si>
   <si>
     <t>47,41%</t>
   </si>
   <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
   </si>
   <si>
     <t>56,61%</t>
   </si>
   <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
   </si>
   <si>
     <t>11,07%</t>
   </si>
   <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
   </si>
   <si>
     <t>18,31%</t>
   </si>
   <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
   </si>
   <si>
     <t>13,42%</t>
   </si>
   <si>
-    <t>15,96%</t>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
   </si>
   <si>
     <t>11,27%</t>
   </si>
   <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
   </si>
   <si>
     <t>14,66%</t>
   </si>
   <si>
-    <t>10,52%</t>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
   </si>
   <si>
     <t>12,37%</t>
   </si>
   <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
   </si>
   <si>
     <t>16,64%</t>
   </si>
   <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
   </si>
   <si>
     <t>19,61%</t>
   </si>
   <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
   </si>
   <si>
     <t>17,6%</t>
   </si>
   <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
     <t>15,16%</t>
   </si>
   <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
   </si>
   <si>
     <t>14,24%</t>
   </si>
   <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
   </si>
   <si>
     <t>12,59%</t>
   </si>
   <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
+    <t>11,17%</t>
   </si>
   <si>
     <t>15,27%</t>
   </si>
   <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
   </si>
   <si>
     <t>17,1%</t>
   </si>
   <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
+    <t>18,83%</t>
   </si>
   <si>
     <t>22,27%</t>
   </si>
   <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
   </si>
   <si>
     <t>18,91%</t>
   </si>
   <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1122,7 +1128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A9275C-B076-4BF2-B1B0-50C4B6260642}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BE1432-6D37-47CA-AFA8-C16B9BB8FF1E}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1844,10 +1850,10 @@
         <v>102</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1862,13 +1868,13 @@
         <v>62737</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>37</v>
@@ -1877,13 +1883,13 @@
         <v>39258</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>95</v>
@@ -1892,13 +1898,13 @@
         <v>101995</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1913,13 +1919,13 @@
         <v>92662</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -1928,13 +1934,13 @@
         <v>52500</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>128</v>
@@ -1943,13 +1949,13 @@
         <v>145162</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2005,7 +2011,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2017,13 +2023,13 @@
         <v>213824</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>92</v>
@@ -2032,13 +2038,13 @@
         <v>94723</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>293</v>
@@ -2047,13 +2053,13 @@
         <v>308548</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2068,13 +2074,13 @@
         <v>65629</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
@@ -2083,13 +2089,13 @@
         <v>35201</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>95</v>
@@ -2098,13 +2104,13 @@
         <v>100830</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2119,13 +2125,13 @@
         <v>63389</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>31</v>
@@ -2134,13 +2140,13 @@
         <v>30500</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>90</v>
@@ -2149,13 +2155,13 @@
         <v>93889</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2170,13 +2176,13 @@
         <v>64577</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>55</v>
@@ -2185,13 +2191,13 @@
         <v>52522</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>111</v>
@@ -2200,13 +2206,13 @@
         <v>117100</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2262,7 +2268,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2274,13 +2280,13 @@
         <v>264977</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>153</v>
@@ -2289,13 +2295,13 @@
         <v>166982</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>429</v>
@@ -2304,13 +2310,13 @@
         <v>431960</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2325,13 +2331,13 @@
         <v>68672</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>47</v>
@@ -2340,13 +2346,13 @@
         <v>49175</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>118</v>
@@ -2355,13 +2361,13 @@
         <v>117846</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2376,13 +2382,13 @@
         <v>73493</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>57</v>
@@ -2391,13 +2397,13 @@
         <v>59661</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>131</v>
@@ -2406,13 +2412,13 @@
         <v>133154</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>134</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2427,13 +2433,13 @@
         <v>148731</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H27" s="7">
         <v>110</v>
@@ -2442,13 +2448,13 @@
         <v>113242</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>187</v>
+        <v>119</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M27" s="7">
         <v>264</v>
@@ -2457,13 +2463,13 @@
         <v>261972</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2531,13 +2537,13 @@
         <v>1081280</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>454</v>
@@ -2546,13 +2552,13 @@
         <v>481298</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>1490</v>
@@ -2561,13 +2567,13 @@
         <v>1562579</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2582,13 +2588,13 @@
         <v>257670</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>152</v>
@@ -2597,13 +2603,13 @@
         <v>159662</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>401</v>
@@ -2612,13 +2618,13 @@
         <v>417332</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2633,10 +2639,10 @@
         <v>239683</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>209</v>
@@ -2648,13 +2654,13 @@
         <v>156701</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M31" s="7">
         <v>382</v>
@@ -2663,13 +2669,13 @@
         <v>396384</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>213</v>
+        <v>169</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2684,13 +2690,13 @@
         <v>325725</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H32" s="7">
         <v>224</v>
@@ -2699,13 +2705,13 @@
         <v>228576</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M32" s="7">
         <v>533</v>
@@ -2714,13 +2720,13 @@
         <v>554301</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,7 +2738,7 @@
         <v>1824</v>
       </c>
       <c r="D33" s="7">
-        <v>1904359</v>
+        <v>1904358</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>48</v>
@@ -2776,7 +2782,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6512-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6512-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94C23607-007A-4B64-9E63-E5BA8F520E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A32385F-EC7E-49B7-9F85-CF4BD66DACFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{148417A6-DA45-405A-912D-988565D7B498}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{835EE643-1903-4196-B913-50263AA59B92}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="190">
   <si>
     <t>Población según el uso de ordenadores durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,1%)</t>
   </si>
@@ -65,237 +65,132 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
   </si>
   <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
   </si>
   <si>
     <t>Muchas veces</t>
   </si>
   <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
   </si>
   <si>
     <t>Siempre</t>
   </si>
   <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -338,9 +233,6 @@
     <t>18,31%</t>
   </si>
   <si>
-    <t>13,74%</t>
-  </si>
-  <si>
     <t>23,57%</t>
   </si>
   <si>
@@ -407,7 +299,7 @@
     <t>20,45%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>52,48%</t>
@@ -438,9 +330,6 @@
   </si>
   <si>
     <t>16,11%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
   </si>
   <si>
     <t>20,23%</t>
@@ -1128,8 +1017,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BE1432-6D37-47CA-AFA8-C16B9BB8FF1E}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C386C001-ABF9-44B1-B259-3632A8593210}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1246,10 +1135,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>36</v>
+        <v>248</v>
       </c>
       <c r="D4" s="7">
-        <v>40697</v>
+        <v>262609</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1261,10 +1150,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I4" s="7">
-        <v>18318</v>
+        <v>92656</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1276,10 +1165,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>56</v>
+        <v>339</v>
       </c>
       <c r="N4" s="7">
-        <v>59014</v>
+        <v>355265</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1297,10 +1186,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D5" s="7">
-        <v>11799</v>
+        <v>61722</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1312,10 +1201,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I5" s="7">
-        <v>1770</v>
+        <v>26256</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1327,10 +1216,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="N5" s="7">
-        <v>13569</v>
+        <v>87978</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1348,10 +1237,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D6" s="7">
-        <v>3296</v>
+        <v>40064</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1363,10 +1252,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="I6" s="7">
-        <v>2703</v>
+        <v>27282</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1378,10 +1267,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="N6" s="7">
-        <v>5998</v>
+        <v>67346</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1399,49 +1288,49 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D7" s="7">
-        <v>1134</v>
+        <v>19755</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>1703</v>
+        <v>10312</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="N7" s="7">
-        <v>2837</v>
+        <v>30067</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1450,102 +1339,102 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>50</v>
+        <v>367</v>
       </c>
       <c r="D8" s="7">
-        <v>56926</v>
+        <v>384150</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="I8" s="7">
-        <v>24493</v>
+        <v>156505</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
-        <v>77</v>
+        <v>520</v>
       </c>
       <c r="N8" s="7">
-        <v>81419</v>
+        <v>540655</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>212</v>
+        <v>311</v>
       </c>
       <c r="D9" s="7">
-        <v>221911</v>
+        <v>339870</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="I9" s="7">
-        <v>74338</v>
+        <v>126937</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
-        <v>283</v>
+        <v>429</v>
       </c>
       <c r="N9" s="7">
-        <v>296250</v>
+        <v>466807</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1554,49 +1443,49 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D10" s="7">
-        <v>49923</v>
+        <v>61647</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="I10" s="7">
-        <v>24486</v>
+        <v>49031</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="N10" s="7">
-        <v>74408</v>
+        <v>110678</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1605,49 +1494,49 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D11" s="7">
-        <v>36769</v>
+        <v>62737</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I11" s="7">
-        <v>24579</v>
+        <v>39258</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="N11" s="7">
-        <v>61347</v>
+        <v>101995</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1656,49 +1545,49 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="D12" s="7">
-        <v>18621</v>
+        <v>92662</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="I12" s="7">
-        <v>8609</v>
+        <v>52500</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="N12" s="7">
-        <v>27230</v>
+        <v>145162</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1707,102 +1596,102 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>317</v>
+        <v>506</v>
       </c>
       <c r="D13" s="7">
-        <v>327223</v>
+        <v>556916</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="I13" s="7">
-        <v>132012</v>
+        <v>267726</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>443</v>
+        <v>755</v>
       </c>
       <c r="N13" s="7">
-        <v>459235</v>
+        <v>824642</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>311</v>
+        <v>201</v>
       </c>
       <c r="D14" s="7">
-        <v>339870</v>
+        <v>213824</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="I14" s="7">
-        <v>126937</v>
+        <v>94723</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
-        <v>429</v>
+        <v>293</v>
       </c>
       <c r="N14" s="7">
-        <v>466807</v>
+        <v>308548</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1811,25 +1700,25 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D15" s="7">
-        <v>61647</v>
+        <v>65629</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>98</v>
       </c>
       <c r="H15" s="7">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I15" s="7">
-        <v>49031</v>
+        <v>35201</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>99</v>
@@ -1841,19 +1730,19 @@
         <v>101</v>
       </c>
       <c r="M15" s="7">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="N15" s="7">
-        <v>110678</v>
+        <v>100830</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>102</v>
       </c>
       <c r="P15" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1862,49 +1751,49 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" s="7">
-        <v>62737</v>
+        <v>63389</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>31</v>
+      </c>
+      <c r="I16" s="7">
+        <v>30500</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H16" s="7">
-        <v>37</v>
-      </c>
-      <c r="I16" s="7">
-        <v>39258</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>90</v>
+      </c>
+      <c r="N16" s="7">
+        <v>93889</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="M16" s="7">
-        <v>95</v>
-      </c>
-      <c r="N16" s="7">
-        <v>101995</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1913,49 +1802,49 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D17" s="7">
-        <v>92662</v>
+        <v>64577</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>55</v>
+      </c>
+      <c r="I17" s="7">
+        <v>52522</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H17" s="7">
-        <v>49</v>
-      </c>
-      <c r="I17" s="7">
-        <v>52500</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>111</v>
+      </c>
+      <c r="N17" s="7">
+        <v>117100</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="M17" s="7">
-        <v>128</v>
-      </c>
-      <c r="N17" s="7">
-        <v>145162</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1964,102 +1853,102 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>506</v>
+        <v>376</v>
       </c>
       <c r="D18" s="7">
-        <v>556916</v>
+        <v>407420</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="I18" s="7">
-        <v>267726</v>
+        <v>212946</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>755</v>
+        <v>589</v>
       </c>
       <c r="N18" s="7">
-        <v>824642</v>
+        <v>620366</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>201</v>
+        <v>276</v>
       </c>
       <c r="D19" s="7">
-        <v>213824</v>
+        <v>264977</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>153</v>
+      </c>
+      <c r="I19" s="7">
+        <v>166982</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H19" s="7">
-        <v>92</v>
-      </c>
-      <c r="I19" s="7">
-        <v>94723</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>429</v>
+      </c>
+      <c r="N19" s="7">
+        <v>431960</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="M19" s="7">
-        <v>293</v>
-      </c>
-      <c r="N19" s="7">
-        <v>308548</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2068,46 +1957,46 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D20" s="7">
-        <v>65629</v>
+        <v>68672</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>47</v>
+      </c>
+      <c r="I20" s="7">
+        <v>49175</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H20" s="7">
-        <v>35</v>
-      </c>
-      <c r="I20" s="7">
-        <v>35201</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>118</v>
+      </c>
+      <c r="N20" s="7">
+        <v>117846</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="M20" s="7">
-        <v>95</v>
-      </c>
-      <c r="N20" s="7">
-        <v>100830</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>140</v>
@@ -2119,10 +2008,10 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D21" s="7">
-        <v>63389</v>
+        <v>73493</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>141</v>
@@ -2134,10 +2023,10 @@
         <v>143</v>
       </c>
       <c r="H21" s="7">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="I21" s="7">
-        <v>30500</v>
+        <v>59661</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>144</v>
@@ -2149,10 +2038,10 @@
         <v>146</v>
       </c>
       <c r="M21" s="7">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="N21" s="7">
-        <v>93889</v>
+        <v>133154</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>147</v>
@@ -2170,10 +2059,10 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>56</v>
+        <v>154</v>
       </c>
       <c r="D22" s="7">
-        <v>64577</v>
+        <v>148731</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>150</v>
@@ -2185,34 +2074,34 @@
         <v>152</v>
       </c>
       <c r="H22" s="7">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="I22" s="7">
-        <v>52522</v>
+        <v>113242</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>264</v>
+      </c>
+      <c r="N22" s="7">
+        <v>261972</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="M22" s="7">
-        <v>111</v>
-      </c>
-      <c r="N22" s="7">
-        <v>117100</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2221,102 +2110,102 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>376</v>
+        <v>575</v>
       </c>
       <c r="D23" s="7">
-        <v>407420</v>
+        <v>555873</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
-        <v>213</v>
+        <v>367</v>
       </c>
       <c r="I23" s="7">
-        <v>212946</v>
+        <v>389060</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
-        <v>589</v>
+        <v>942</v>
       </c>
       <c r="N23" s="7">
-        <v>620366</v>
+        <v>944933</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>276</v>
+        <v>1036</v>
       </c>
       <c r="D24" s="7">
-        <v>264977</v>
+        <v>1081280</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>454</v>
+      </c>
+      <c r="I24" s="7">
+        <v>481298</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="H24" s="7">
-        <v>153</v>
-      </c>
-      <c r="I24" s="7">
-        <v>166982</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>1490</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1562579</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="M24" s="7">
-        <v>429</v>
-      </c>
-      <c r="N24" s="7">
-        <v>431960</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2325,49 +2214,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>71</v>
+        <v>249</v>
       </c>
       <c r="D25" s="7">
-        <v>68672</v>
+        <v>257670</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>152</v>
+      </c>
+      <c r="I25" s="7">
+        <v>159662</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="H25" s="7">
-        <v>47</v>
-      </c>
-      <c r="I25" s="7">
-        <v>49175</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>401</v>
+      </c>
+      <c r="N25" s="7">
+        <v>417332</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="M25" s="7">
-        <v>118</v>
-      </c>
-      <c r="N25" s="7">
-        <v>117846</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2376,49 +2265,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="D26" s="7">
-        <v>73493</v>
+        <v>239683</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H26" s="7">
+        <v>152</v>
+      </c>
+      <c r="I26" s="7">
+        <v>156701</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>382</v>
+      </c>
+      <c r="N26" s="7">
+        <v>396384</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="H26" s="7">
-        <v>57</v>
-      </c>
-      <c r="I26" s="7">
-        <v>59661</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="M26" s="7">
-        <v>131</v>
-      </c>
-      <c r="N26" s="7">
-        <v>133154</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2427,49 +2316,49 @@
         <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>154</v>
+        <v>309</v>
       </c>
       <c r="D27" s="7">
-        <v>148731</v>
+        <v>325725</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H27" s="7">
+        <v>224</v>
+      </c>
+      <c r="I27" s="7">
+        <v>228576</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="M27" s="7">
+        <v>533</v>
+      </c>
+      <c r="N27" s="7">
+        <v>554301</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H27" s="7">
-        <v>110</v>
-      </c>
-      <c r="I27" s="7">
-        <v>113242</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="M27" s="7">
-        <v>264</v>
-      </c>
-      <c r="N27" s="7">
-        <v>261972</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2478,319 +2367,61 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>575</v>
+        <v>1824</v>
       </c>
       <c r="D28" s="7">
-        <v>555873</v>
+        <v>1904359</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
-        <v>367</v>
+        <v>982</v>
       </c>
       <c r="I28" s="7">
-        <v>389060</v>
+        <v>1026237</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
-        <v>942</v>
+        <v>2806</v>
       </c>
       <c r="N28" s="7">
-        <v>944933</v>
+        <v>2930596</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>1036</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1081280</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H29" s="7">
-        <v>454</v>
-      </c>
-      <c r="I29" s="7">
-        <v>481298</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="M29" s="7">
-        <v>1490</v>
-      </c>
-      <c r="N29" s="7">
-        <v>1562579</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="7">
-        <v>249</v>
-      </c>
-      <c r="D30" s="7">
-        <v>257670</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H30" s="7">
-        <v>152</v>
-      </c>
-      <c r="I30" s="7">
-        <v>159662</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M30" s="7">
-        <v>401</v>
-      </c>
-      <c r="N30" s="7">
-        <v>417332</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="7">
-        <v>230</v>
-      </c>
-      <c r="D31" s="7">
-        <v>239683</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H31" s="7">
-        <v>152</v>
-      </c>
-      <c r="I31" s="7">
-        <v>156701</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="M31" s="7">
-        <v>382</v>
-      </c>
-      <c r="N31" s="7">
-        <v>396384</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="7">
-        <v>309</v>
-      </c>
-      <c r="D32" s="7">
-        <v>325725</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H32" s="7">
-        <v>224</v>
-      </c>
-      <c r="I32" s="7">
-        <v>228576</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="M32" s="7">
-        <v>533</v>
-      </c>
-      <c r="N32" s="7">
-        <v>554301</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>1824</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1904358</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H33" s="7">
-        <v>982</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1026237</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M33" s="7">
-        <v>2806</v>
-      </c>
-      <c r="N33" s="7">
-        <v>2930596</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>226</v>
+      <c r="A29" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
